--- a/data/trans_orig/IP07C16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C16-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D39116-6395-476C-9851-14FE7F30EF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B368B75-EE7B-4401-9C7A-02EE5F0E35A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93F517BE-54AC-4CC0-A3D5-F68D8F8014C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6CC6C87C-FFCC-4BD3-A8FE-3B0EC01134EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="454">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 42,4%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>44,77%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
   </si>
   <si>
     <t>43,34%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
   </si>
   <si>
     <t>44,03%</t>
   </si>
   <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>48,78%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>46,22%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,1294 +136,1270 @@
     <t>6,45%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
   </si>
   <si>
     <t>39,96%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>0,18%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB3A10A-34E0-431B-B413-9AE12A0416CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACADDA1-A845-4CC8-B956-7B5115806EB3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2426,7 +2402,7 @@
         <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2435,10 +2411,10 @@
         <v>5670</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>80</v>
@@ -2456,7 +2432,7 @@
         <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2447,13 @@
         <v>685</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2486,13 +2462,13 @@
         <v>793</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2501,13 +2477,13 @@
         <v>1478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2575,10 +2551,10 @@
         <v>21480</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>92</v>
@@ -3054,10 +3030,10 @@
         <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -3066,13 +3042,13 @@
         <v>13480</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3063,13 @@
         <v>685</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3108,7 +3084,7 @@
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3117,13 +3093,13 @@
         <v>2211</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,7 +3155,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3198,7 +3174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB93C50-EEC2-4442-90B3-A5CD8C7A73B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA84E9EB-F89C-440F-8E1D-C5B2BADA3069}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3215,7 +3191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3322,13 +3298,13 @@
         <v>23694</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -3337,13 +3313,13 @@
         <v>25026</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -3352,13 +3328,13 @@
         <v>48719</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3349,13 @@
         <v>14382</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -3388,13 +3364,13 @@
         <v>19609</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
@@ -3403,13 +3379,13 @@
         <v>33990</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3400,13 @@
         <v>6263</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3439,13 +3415,13 @@
         <v>5122</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3454,13 +3430,13 @@
         <v>11385</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3466,13 @@
         <v>1260</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3505,13 +3481,13 @@
         <v>1260</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3502,13 @@
         <v>823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3547,7 +3523,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3556,13 +3532,13 @@
         <v>823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3606,13 @@
         <v>110456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -3645,13 +3621,13 @@
         <v>89450</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>287</v>
@@ -3660,13 +3636,13 @@
         <v>199906</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,10 +3660,10 @@
         <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -3696,13 +3672,13 @@
         <v>80141</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>234</v>
@@ -3711,13 +3687,13 @@
         <v>160587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3708,13 @@
         <v>27829</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -3747,13 +3723,13 @@
         <v>27080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -3762,13 +3738,13 @@
         <v>54908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3759,13 @@
         <v>1304</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3798,13 +3774,13 @@
         <v>2162</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3813,13 +3789,13 @@
         <v>3466</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3810,13 @@
         <v>2447</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3849,13 +3825,13 @@
         <v>916</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3864,13 +3840,13 @@
         <v>3362</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,7 +3902,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3938,13 +3914,13 @@
         <v>24100</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -3953,13 +3929,13 @@
         <v>30360</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -3968,13 +3944,13 @@
         <v>54460</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3965,13 @@
         <v>23927</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4004,13 +3980,13 @@
         <v>24090</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -4019,13 +3995,13 @@
         <v>48018</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4016,13 @@
         <v>8125</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4055,13 +4031,13 @@
         <v>4240</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -4070,13 +4046,13 @@
         <v>12364</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4073,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4106,13 +4082,13 @@
         <v>1436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4121,13 +4097,13 @@
         <v>1436</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,7 +4124,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4163,7 +4139,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4178,7 +4154,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4222,13 @@
         <v>158250</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>206</v>
@@ -4261,13 +4237,13 @@
         <v>144835</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>435</v>
@@ -4276,13 +4252,13 @@
         <v>303084</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4273,13 @@
         <v>118755</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -4312,13 +4288,13 @@
         <v>123839</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>350</v>
@@ -4327,13 +4303,13 @@
         <v>242595</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4324,13 @@
         <v>42216</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -4363,13 +4339,13 @@
         <v>36441</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M24" s="7">
         <v>113</v>
@@ -4378,13 +4354,13 @@
         <v>78658</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4375,13 @@
         <v>1304</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -4414,13 +4390,13 @@
         <v>4859</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4429,13 +4405,13 @@
         <v>6163</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,7 +4441,7 @@
         <v>916</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
@@ -4542,7 +4518,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4561,7 +4537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A7E380-5AE3-41B1-BE86-4FEB8DCBC4A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B1E089-15CB-4016-9959-32AD5EF521D9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5011,10 +4987,10 @@
         <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>284</v>
@@ -5023,13 +4999,13 @@
         <v>200438</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5020,13 @@
         <v>94322</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -5059,13 +5035,13 @@
         <v>103534</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -5077,10 +5053,10 @@
         <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5071,13 @@
         <v>33814</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>368</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -5131,7 +5107,7 @@
         <v>373</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5122,13 @@
         <v>7485</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5161,13 +5137,13 @@
         <v>3778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5176,13 +5152,13 @@
         <v>11263</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,7 +5179,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5212,13 +5188,13 @@
         <v>1244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5227,13 +5203,13 @@
         <v>1244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,7 +5265,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5301,13 +5277,13 @@
         <v>37596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -5316,13 +5292,13 @@
         <v>33684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -5331,13 +5307,13 @@
         <v>71281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5328,13 @@
         <v>28212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -5367,13 +5343,13 @@
         <v>25445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -5382,13 +5358,13 @@
         <v>53658</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5379,13 @@
         <v>8406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5418,13 +5394,13 @@
         <v>6836</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -5436,10 +5412,10 @@
         <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5430,13 @@
         <v>671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5469,13 +5445,13 @@
         <v>3508</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5484,13 +5460,13 @@
         <v>4179</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5487,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5520,13 +5496,13 @@
         <v>1615</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5535,13 +5511,13 @@
         <v>1615</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5585,13 @@
         <v>150515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -5624,13 +5600,13 @@
         <v>146820</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>421</v>
@@ -5639,13 +5615,13 @@
         <v>297335</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5636,13 @@
         <v>140691</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>196</v>
@@ -5675,13 +5651,13 @@
         <v>137271</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>388</v>
@@ -5690,13 +5666,13 @@
         <v>277963</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5687,13 @@
         <v>48177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>70</v>
@@ -5726,13 +5702,13 @@
         <v>50733</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>227</v>
+        <v>438</v>
       </c>
       <c r="M24" s="7">
         <v>136</v>
@@ -5741,13 +5717,13 @@
         <v>98910</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>72</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5738,13 @@
         <v>8156</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -5777,13 +5753,13 @@
         <v>7286</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -5792,13 +5768,13 @@
         <v>15442</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>306</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5795,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5828,13 +5804,13 @@
         <v>2859</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5843,13 +5819,13 @@
         <v>2859</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,7 +5881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C16-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B368B75-EE7B-4401-9C7A-02EE5F0E35A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F0783E-4C80-4AEB-8472-E841BFE451BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6CC6C87C-FFCC-4BD3-A8FE-3B0EC01134EE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BB468920-1945-4862-952E-EB1AC013EB03}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="449">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 42,4%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1333 +73,1318 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
     <t>44,77%</t>
   </si>
   <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
   </si>
   <si>
     <t>44,03%</t>
   </si>
   <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
     <t>48,78%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>3,29%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
     <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACADDA1-A845-4CC8-B956-7B5115806EB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543FACD9-92BE-4BB8-9B11-45B31E4FF51E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1929,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>19064</v>
+        <v>19942</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1944,10 +1929,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>19942</v>
+        <v>19064</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1980,10 +1965,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>20772</v>
+        <v>21268</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1995,10 +1980,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>21268</v>
+        <v>20772</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2031,10 +2016,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>2746</v>
+        <v>4804</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2046,10 +2031,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>4804</v>
+        <v>2746</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2184,25 +2169,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>42582</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -2237,10 +2222,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D10" s="7">
-        <v>84617</v>
+        <v>77967</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -2252,10 +2237,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I10" s="7">
-        <v>77967</v>
+        <v>84617</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -2279,7 +2264,7 @@
         <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,34 +2273,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>122</v>
+      </c>
+      <c r="D11" s="7">
+        <v>80242</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7">
         <v>147</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>96911</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="7">
-        <v>122</v>
-      </c>
-      <c r="I11" s="7">
-        <v>80242</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>269</v>
@@ -2324,13 +2309,13 @@
         <v>177153</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,34 +2324,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7">
+        <v>23927</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="7">
         <v>43</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>28023</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="7">
-        <v>36</v>
-      </c>
-      <c r="I12" s="7">
-        <v>23927</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>79</v>
@@ -2375,13 +2360,13 @@
         <v>51950</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,31 +2375,31 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5670</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5717</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5670</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>80</v>
@@ -2432,7 +2417,7 @@
         <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,31 +2429,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>685</v>
+        <v>793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>793</v>
+        <v>685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2477,13 +2462,13 @@
         <v>1478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,25 +2477,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>282</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188598</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>326</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>215954</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>282</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188598</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -2539,7 +2524,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2548,31 +2533,31 @@
         <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>21480</v>
+        <v>22394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
       </c>
       <c r="I16" s="7">
-        <v>22394</v>
+        <v>21480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -2581,13 +2566,13 @@
         <v>43874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,31 +2584,31 @@
         <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>17731</v>
+        <v>18504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>18504</v>
+        <v>17731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -2632,13 +2617,13 @@
         <v>36235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,34 +2632,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10522</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>9830</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10522</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -2683,13 +2668,13 @@
         <v>20352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,34 +2683,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2093</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2093</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2734,13 +2719,13 @@
         <v>2093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,34 +2734,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>733</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>733</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2785,13 +2770,13 @@
         <v>733</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,25 +2785,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -2853,34 +2838,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>177</v>
+      </c>
+      <c r="D22" s="7">
+        <v>120303</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="7">
         <v>187</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>125162</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="7">
-        <v>177</v>
-      </c>
-      <c r="I22" s="7">
-        <v>120303</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>364</v>
@@ -2889,13 +2874,13 @@
         <v>245465</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,34 +2889,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>181</v>
+      </c>
+      <c r="D23" s="7">
+        <v>120014</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="7">
         <v>205</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>135413</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="7">
-        <v>181</v>
-      </c>
-      <c r="I23" s="7">
-        <v>120014</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="M23" s="7">
         <v>386</v>
@@ -2955,10 +2940,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7">
-        <v>40598</v>
+        <v>39253</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>145</v>
@@ -2970,10 +2955,10 @@
         <v>147</v>
       </c>
       <c r="H24" s="7">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I24" s="7">
-        <v>39253</v>
+        <v>40598</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>148</v>
@@ -3006,10 +2991,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>5717</v>
+        <v>7763</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>154</v>
@@ -3021,19 +3006,19 @@
         <v>156</v>
       </c>
       <c r="H25" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I25" s="7">
-        <v>7763</v>
+        <v>5717</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -3042,13 +3027,13 @@
         <v>13480</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,34 +3042,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>685</v>
+        <v>1526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1526</v>
+        <v>685</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3093,13 +3078,13 @@
         <v>2211</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,25 +3093,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>429</v>
+      </c>
+      <c r="D27" s="7">
+        <v>288858</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7">
         <v>463</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>307576</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7">
-        <v>429</v>
-      </c>
-      <c r="I27" s="7">
-        <v>288858</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -3155,7 +3140,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3174,7 +3159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA84E9EB-F89C-440F-8E1D-C5B2BADA3069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6DB464-BEBD-4B8F-954D-0238659719B9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3191,7 +3176,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3292,34 +3277,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25026</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="7">
         <v>34</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>23694</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H4" s="7">
-        <v>36</v>
-      </c>
-      <c r="I4" s="7">
-        <v>25026</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -3328,13 +3313,13 @@
         <v>48719</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,34 +3328,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>19609</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="7">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>14382</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="7">
-        <v>28</v>
-      </c>
-      <c r="I5" s="7">
-        <v>19609</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>48</v>
@@ -3379,13 +3364,13 @@
         <v>33990</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,34 +3379,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5122</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>6263</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5122</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3430,13 +3415,13 @@
         <v>11385</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,34 +3430,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1260</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1260</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3481,13 +3466,13 @@
         <v>1260</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,34 +3481,34 @@
         <v>46</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>823</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3532,13 +3517,13 @@
         <v>823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,25 +3532,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51017</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51017</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -3600,34 +3585,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>127</v>
+      </c>
+      <c r="D10" s="7">
+        <v>89450</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="7">
         <v>160</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>110456</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="7">
-        <v>127</v>
-      </c>
-      <c r="I10" s="7">
-        <v>89450</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>287</v>
@@ -3636,13 +3621,13 @@
         <v>199906</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,34 +3636,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>116</v>
+      </c>
+      <c r="D11" s="7">
+        <v>80141</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" s="7">
         <v>118</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>80446</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11" s="7">
-        <v>116</v>
-      </c>
-      <c r="I11" s="7">
-        <v>80141</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>234</v>
@@ -3687,13 +3672,13 @@
         <v>160587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,34 +3687,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>39</v>
+      </c>
+      <c r="D12" s="7">
+        <v>27080</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="7">
         <v>41</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>27829</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" s="7">
-        <v>39</v>
-      </c>
-      <c r="I12" s="7">
-        <v>27080</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>80</v>
@@ -3738,13 +3723,13 @@
         <v>54908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,34 +3738,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2162</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1304</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2162</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3789,13 +3774,13 @@
         <v>3466</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,31 +3789,31 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>2447</v>
+        <v>916</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2447</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>916</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>240</v>
@@ -3855,25 +3840,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199748</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>325</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>222481</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199748</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -3902,16 +3887,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>24100</v>
+        <v>30360</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>244</v>
@@ -3923,10 +3908,10 @@
         <v>246</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>30360</v>
+        <v>24100</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>247</v>
@@ -3959,10 +3944,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>23927</v>
+        <v>24090</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>253</v>
@@ -3974,10 +3959,10 @@
         <v>255</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I17" s="7">
-        <v>24090</v>
+        <v>23927</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>256</v>
@@ -4010,34 +3995,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>8125</v>
+        <v>4240</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8125</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4240</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -4046,13 +4031,13 @@
         <v>12364</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,34 +4046,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1436</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>271</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1436</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4097,13 +4082,13 @@
         <v>1436</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4109,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4139,7 +4124,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4154,7 +4139,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,25 +4148,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60126</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7">
-        <v>84</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60126</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -4216,34 +4201,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>206</v>
+      </c>
+      <c r="D22" s="7">
+        <v>144835</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H22" s="7">
         <v>229</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>158250</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H22" s="7">
-        <v>206</v>
-      </c>
-      <c r="I22" s="7">
-        <v>144835</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>435</v>
@@ -4252,13 +4237,13 @@
         <v>303084</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,34 +4252,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>177</v>
+      </c>
+      <c r="D23" s="7">
+        <v>123839</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="7">
         <v>173</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>118755</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="7">
-        <v>177</v>
-      </c>
-      <c r="I23" s="7">
-        <v>123839</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>350</v>
@@ -4303,13 +4288,13 @@
         <v>242595</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,34 +4303,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>51</v>
+      </c>
+      <c r="D24" s="7">
+        <v>36441</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H24" s="7">
         <v>62</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>42216</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H24" s="7">
-        <v>51</v>
-      </c>
-      <c r="I24" s="7">
-        <v>36441</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>113</v>
@@ -4354,13 +4339,13 @@
         <v>78658</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,34 +4354,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4859</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1304</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H25" s="7">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4859</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4405,13 +4390,13 @@
         <v>6163</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,34 +4405,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>916</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3270</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>916</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -4456,13 +4441,13 @@
         <v>4185</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,25 +4456,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>442</v>
+      </c>
+      <c r="D27" s="7">
+        <v>310890</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7">
         <v>471</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>323795</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7">
-        <v>442</v>
-      </c>
-      <c r="I27" s="7">
-        <v>310890</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -4518,7 +4503,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4537,7 +4522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B1E089-15CB-4016-9959-32AD5EF521D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25532668-2401-4E3F-AA8C-086E3E6877EB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4554,7 +4539,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4655,34 +4640,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13093</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="7">
         <v>18</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>12525</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H4" s="7">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13093</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -4691,13 +4676,13 @@
         <v>25617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,34 +4691,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8292</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>18157</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8292</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4742,13 +4727,13 @@
         <v>26449</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,34 +4742,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9221</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5957</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H6" s="7">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9221</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -4793,13 +4778,13 @@
         <v>15177</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4805,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4835,7 +4820,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4850,7 +4835,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4856,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4886,7 +4871,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4901,7 +4886,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,25 +4895,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -4963,34 +4948,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>145</v>
+      </c>
+      <c r="D10" s="7">
+        <v>100043</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="7">
         <v>139</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>100394</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H10" s="7">
-        <v>145</v>
-      </c>
-      <c r="I10" s="7">
-        <v>100043</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>284</v>
@@ -4999,13 +4984,13 @@
         <v>200438</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,34 +4999,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>148</v>
+      </c>
+      <c r="D11" s="7">
+        <v>103534</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" s="7">
         <v>128</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>94322</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H11" s="7">
-        <v>148</v>
-      </c>
-      <c r="I11" s="7">
-        <v>103534</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>276</v>
@@ -5050,13 +5035,13 @@
         <v>197856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,34 +5050,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7">
+        <v>34676</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12" s="7">
         <v>46</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>33814</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H12" s="7">
-        <v>48</v>
-      </c>
-      <c r="I12" s="7">
-        <v>34676</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>94</v>
@@ -5101,13 +5086,13 @@
         <v>68491</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>150</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,34 +5101,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3778</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>7485</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3778</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5152,13 +5137,13 @@
         <v>11263</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,34 +5152,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1244</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1244</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5203,13 +5188,13 @@
         <v>1244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,25 +5203,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>348</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243275</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>323</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>236016</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>348</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243275</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -5265,40 +5250,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33684</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" s="7">
         <v>52</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>37596</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>33684</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -5307,13 +5292,13 @@
         <v>71281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,34 +5307,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7">
+        <v>25445</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" s="7">
         <v>39</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>28212</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="H17" s="7">
-        <v>36</v>
-      </c>
-      <c r="I17" s="7">
-        <v>25445</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -5358,13 +5343,13 @@
         <v>53658</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,34 +5358,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6836</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8406</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="H18" s="7">
-        <v>9</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6836</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -5409,13 +5394,13 @@
         <v>15242</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>405</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,34 +5409,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3508</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>671</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3508</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5460,13 +5445,13 @@
         <v>4179</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,34 +5460,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1615</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1615</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5511,13 +5496,13 @@
         <v>1615</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,25 +5511,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>104</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>74885</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -5579,34 +5564,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>212</v>
+      </c>
+      <c r="D22" s="7">
+        <v>146820</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H22" s="7">
         <v>209</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>150515</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="H22" s="7">
-        <v>212</v>
-      </c>
-      <c r="I22" s="7">
-        <v>146820</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>421</v>
@@ -5615,13 +5600,13 @@
         <v>297335</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,25 +5615,25 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D23" s="7">
-        <v>140691</v>
+        <v>137271</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>426</v>
       </c>
       <c r="H23" s="7">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I23" s="7">
-        <v>137271</v>
+        <v>140691</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>427</v>
@@ -5672,7 +5657,7 @@
         <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,34 +5666,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>70</v>
+      </c>
+      <c r="D24" s="7">
+        <v>50733</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H24" s="7">
         <v>66</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>48177</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="H24" s="7">
-        <v>70</v>
-      </c>
-      <c r="I24" s="7">
-        <v>50733</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M24" s="7">
         <v>136</v>
@@ -5717,13 +5702,13 @@
         <v>98910</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>439</v>
+        <v>39</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,34 +5717,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7286</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H25" s="7">
         <v>11</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>8156</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="H25" s="7">
-        <v>10</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7286</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -5768,13 +5753,13 @@
         <v>15442</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,34 +5768,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2859</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2859</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5819,13 +5804,13 @@
         <v>2859</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,25 +5819,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>492</v>
+      </c>
+      <c r="D27" s="7">
+        <v>344970</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>347539</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7">
-        <v>492</v>
-      </c>
-      <c r="I27" s="7">
-        <v>344970</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -5881,7 +5866,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
